--- a/qa/lastmonth/【SQA质量月报】福州软件部202009.xlsx
+++ b/qa/lastmonth/【SQA质量月报】福州软件部202009.xlsx
@@ -474,20 +474,14 @@
     <t>2. 版本质量：</t>
   </si>
   <si>
-    <t>成功上线33个版本；</t>
+    <t>成功发布33个版本；</t>
   </si>
   <si>
     <t>3. 研发内部质量：</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本月线上缺陷：204个，</t>
+      <t>本月新增缺陷：204个，</t>
     </r>
     <r>
       <rPr>
@@ -7119,12 +7113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="80">
     <font>
@@ -7532,6 +7526,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -7539,23 +7549,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7571,6 +7580,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7578,43 +7595,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -7630,6 +7610,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -7640,15 +7649,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7657,13 +7658,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7849,7 +7843,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7861,7 +7873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7873,7 +7897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7885,55 +7915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7951,19 +7933,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7975,25 +7987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8500,16 +8494,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8531,17 +8525,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -8550,16 +8533,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8586,10 +8580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="29" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="39" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8598,148 +8592,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="41" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="41" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="44" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="32" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="32" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="48" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8750,10 +8744,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9255,20 +9249,20 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="34" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="18" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="34" fillId="18" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="34" fillId="18" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="34" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="19" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9497,14 +9491,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="36" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9563,7 +9554,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9572,7 +9563,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9604,10 +9595,10 @@
     <xf numFmtId="0" fontId="50" fillId="6" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9622,13 +9613,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10202,206 +10193,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.15" customHeight="1" spans="1:4">
-      <c r="A1" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
+      <c r="A1" s="306" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="308" t="s">
+      <c r="C2" s="307" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="309" t="s">
+      <c r="D2" s="308" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="310">
+      <c r="A3" s="309">
         <v>1</v>
       </c>
-      <c r="B3" s="311" t="s">
+      <c r="B3" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="311"/>
     </row>
     <row r="4" ht="49.5" outlineLevel="1" spans="1:4">
-      <c r="A4" s="313"/>
-      <c r="B4" s="314" t="s">
+      <c r="A4" s="312"/>
+      <c r="B4" s="313" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="312" t="s">
+      <c r="D4" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="310">
+      <c r="A5" s="309">
         <v>2</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="B5" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="311"/>
     </row>
     <row r="6" ht="19.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A6" s="313"/>
-      <c r="B6" s="316" t="s">
+      <c r="A6" s="312"/>
+      <c r="B6" s="315" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="317" t="s">
+      <c r="C6" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="312" t="s">
+      <c r="D6" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="310">
+      <c r="A7" s="309">
         <v>3</v>
       </c>
-      <c r="B7" s="311" t="s">
+      <c r="B7" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="311"/>
-      <c r="D7" s="312"/>
+      <c r="C7" s="310"/>
+      <c r="D7" s="311"/>
     </row>
     <row r="8" outlineLevel="1" spans="2:4">
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="317" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="312" t="s">
+      <c r="D8" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" outlineLevel="1" spans="2:4">
-      <c r="B9" s="318" t="s">
+      <c r="B9" s="317" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="312" t="s">
+      <c r="D9" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" outlineLevel="1" spans="2:4">
-      <c r="B10" s="318" t="s">
+      <c r="B10" s="317" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="312" t="s">
+      <c r="D10" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" outlineLevel="1" spans="2:4">
-      <c r="B11" s="318" t="s">
+      <c r="B11" s="317" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="312" t="s">
+      <c r="D11" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" outlineLevel="1" spans="2:4">
-      <c r="B12" s="318" t="s">
+      <c r="B12" s="317" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="312" t="s">
+      <c r="D12" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="316" t="s">
+      <c r="B13" s="315" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="312" t="s">
+      <c r="D13" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="26.1" customHeight="1" outlineLevel="1" spans="2:4">
-      <c r="B14" s="316" t="s">
+      <c r="B14" s="315" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="312" t="s">
+      <c r="D14" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="316" t="s">
+      <c r="B15" s="315" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="312" t="s">
+      <c r="D15" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="315" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="312" t="s">
+      <c r="D16" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="315" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="312" t="s">
+      <c r="D17" s="311" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="310">
+      <c r="A18" s="309">
         <v>4</v>
       </c>
-      <c r="B18" s="311" t="s">
+      <c r="B18" s="310" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="311"/>
-      <c r="D18" s="312"/>
+      <c r="C18" s="310"/>
+      <c r="D18" s="311"/>
     </row>
     <row r="19" ht="33" spans="2:3">
-      <c r="B19" s="318" t="s">
+      <c r="B19" s="317" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="319" t="s">
+      <c r="C19" s="318" t="s">
         <v>35</v>
       </c>
     </row>
@@ -22359,7 +22350,7 @@
       <c r="D56" s="49" t="s">
         <v>2227</v>
       </c>
-      <c r="E56" s="320" t="s">
+      <c r="E56" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="F56" s="49" t="str">
@@ -22440,13 +22431,13 @@
       <c r="B57" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="320" t="s">
+      <c r="C57" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>2227</v>
       </c>
-      <c r="E57" s="320" t="s">
+      <c r="E57" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="F57" s="49" t="str">
@@ -22527,7 +22518,7 @@
       <c r="B58" s="37" t="s">
         <v>2223</v>
       </c>
-      <c r="C58" s="320" t="s">
+      <c r="C58" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="D58" s="49">
@@ -22707,7 +22698,7 @@
       <c r="D60" s="49" t="s">
         <v>2227</v>
       </c>
-      <c r="E60" s="320" t="s">
+      <c r="E60" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="F60" s="49" t="str">
@@ -22788,13 +22779,13 @@
       <c r="B61" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="320" t="s">
+      <c r="C61" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>2227</v>
       </c>
-      <c r="E61" s="320" t="s">
+      <c r="E61" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="F61" s="49" t="str">
@@ -22875,7 +22866,7 @@
       <c r="B62" s="37" t="s">
         <v>2223</v>
       </c>
-      <c r="C62" s="320" t="s">
+      <c r="C62" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="D62" s="49">
@@ -23057,7 +23048,7 @@
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E64" s="320" t="s">
+      <c r="E64" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="F64" s="49" t="str">
@@ -23138,14 +23129,14 @@
       <c r="B65" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C65" s="320" t="s">
+      <c r="C65" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="D65" s="49" t="str">
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E65" s="320" t="s">
+      <c r="E65" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="F65" s="49" t="str">
@@ -23226,7 +23217,7 @@
       <c r="B66" s="37" t="s">
         <v>2223</v>
       </c>
-      <c r="C66" s="320" t="s">
+      <c r="C66" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="D66" s="49" t="str">
@@ -23485,10 +23476,10 @@
       <c r="B69" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C69" s="320" t="s">
+      <c r="C69" s="319" t="s">
         <v>2234</v>
       </c>
-      <c r="D69" s="320" t="s">
+      <c r="D69" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="E69" s="49">
@@ -23568,10 +23559,10 @@
       <c r="B70" s="37" t="s">
         <v>2223</v>
       </c>
-      <c r="C70" s="320" t="s">
+      <c r="C70" s="319" t="s">
         <v>2234</v>
       </c>
-      <c r="D70" s="320" t="s">
+      <c r="D70" s="319" t="s">
         <v>2234</v>
       </c>
       <c r="E70" s="49">
@@ -23818,10 +23809,10 @@
       <c r="B73" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C73" s="321" t="s">
+      <c r="C73" s="320" t="s">
         <v>2234</v>
       </c>
-      <c r="D73" s="321" t="s">
+      <c r="D73" s="320" t="s">
         <v>2234</v>
       </c>
       <c r="E73" s="124">
@@ -23901,10 +23892,10 @@
       <c r="B74" s="37" t="s">
         <v>2223</v>
       </c>
-      <c r="C74" s="321" t="s">
+      <c r="C74" s="320" t="s">
         <v>2234</v>
       </c>
-      <c r="D74" s="321" t="s">
+      <c r="D74" s="320" t="s">
         <v>2234</v>
       </c>
       <c r="E74" s="124">
@@ -24031,8 +24022,8 @@
   </sheetPr>
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5"/>
@@ -24088,8 +24079,8 @@
       <c r="K2" s="227"/>
       <c r="L2" s="227"/>
       <c r="M2" s="227"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
+      <c r="N2" s="265"/>
+      <c r="O2" s="265"/>
     </row>
     <row r="3" s="182" customFormat="1" ht="23.1" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A3" s="229" t="s">
@@ -24197,8 +24188,8 @@
       <c r="H5" s="233">
         <v>6</v>
       </c>
-      <c r="I5" s="267"/>
-      <c r="J5" s="268"/>
+      <c r="I5" s="266"/>
+      <c r="J5" s="267"/>
       <c r="K5" s="233">
         <v>4</v>
       </c>
@@ -24206,12 +24197,12 @@
         <f>SUM(F5:H5)</f>
         <v>30</v>
       </c>
-      <c r="M5" s="269"/>
+      <c r="M5" s="268"/>
       <c r="N5" s="238">
         <f>SUM(J5:M5)</f>
         <v>34</v>
       </c>
-      <c r="O5" s="270"/>
+      <c r="O5" s="269"/>
     </row>
     <row r="6" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A6" s="239"/>
@@ -24228,17 +24219,17 @@
       <c r="H6" s="233">
         <v>5</v>
       </c>
-      <c r="I6" s="267"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="266"/>
+      <c r="J6" s="270"/>
       <c r="K6" s="233"/>
       <c r="L6" s="238">
         <v>21</v>
       </c>
-      <c r="M6" s="269"/>
+      <c r="M6" s="268"/>
       <c r="N6" s="238">
         <v>23</v>
       </c>
-      <c r="O6" s="270"/>
+      <c r="O6" s="269"/>
     </row>
     <row r="7" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A7" s="239"/>
@@ -24255,17 +24246,17 @@
       <c r="H7" s="233">
         <v>1</v>
       </c>
-      <c r="I7" s="267"/>
-      <c r="J7" s="271"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="270"/>
       <c r="K7" s="233"/>
       <c r="L7" s="233">
         <v>8</v>
       </c>
-      <c r="M7" s="269"/>
+      <c r="M7" s="268"/>
       <c r="N7" s="238">
         <v>12</v>
       </c>
-      <c r="O7" s="270"/>
+      <c r="O7" s="269"/>
     </row>
     <row r="8" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A8" s="239"/>
@@ -24290,8 +24281,8 @@
       <c r="H8" s="245">
         <v>0.6089</v>
       </c>
-      <c r="I8" s="272"/>
-      <c r="J8" s="273"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="272"/>
       <c r="K8" s="245">
         <v>0.4745</v>
       </c>
@@ -24302,7 +24293,7 @@
       <c r="N8" s="245">
         <v>0.5492</v>
       </c>
-      <c r="O8" s="270"/>
+      <c r="O8" s="269"/>
     </row>
     <row r="9" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A9" s="239"/>
@@ -24319,8 +24310,8 @@
       <c r="H9" s="245">
         <v>0.6521</v>
       </c>
-      <c r="I9" s="272"/>
-      <c r="J9" s="273"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="272"/>
       <c r="K9" s="245"/>
       <c r="L9" s="245">
         <v>0.6101</v>
@@ -24329,7 +24320,7 @@
       <c r="N9" s="245">
         <v>0.6034</v>
       </c>
-      <c r="O9" s="270"/>
+      <c r="O9" s="269"/>
     </row>
     <row r="10" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A10" s="239"/>
@@ -24346,8 +24337,8 @@
       <c r="H10" s="245">
         <v>0.3658</v>
       </c>
-      <c r="I10" s="272"/>
-      <c r="J10" s="273"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="272"/>
       <c r="K10" s="245"/>
       <c r="L10" s="245">
         <v>0.4661</v>
@@ -24356,7 +24347,7 @@
       <c r="N10" s="245">
         <v>0.41</v>
       </c>
-      <c r="O10" s="270"/>
+      <c r="O10" s="269"/>
     </row>
     <row r="11" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A11" s="239"/>
@@ -24379,8 +24370,8 @@
       <c r="H11" s="233">
         <v>33</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="268"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="267"/>
       <c r="K11" s="233">
         <v>28</v>
       </c>
@@ -24388,12 +24379,12 @@
         <f>SUM(F11:H11)</f>
         <v>103</v>
       </c>
-      <c r="M11" s="269"/>
+      <c r="M11" s="268"/>
       <c r="N11" s="233">
         <f>SUM(J11:M11)</f>
         <v>131</v>
       </c>
-      <c r="O11" s="274"/>
+      <c r="O11" s="273"/>
     </row>
     <row r="12" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A12" s="239"/>
@@ -24410,17 +24401,17 @@
       <c r="H12" s="233">
         <v>30</v>
       </c>
-      <c r="I12" s="267"/>
-      <c r="J12" s="271"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="270"/>
       <c r="K12" s="233"/>
       <c r="L12" s="233">
         <v>48</v>
       </c>
-      <c r="M12" s="269"/>
+      <c r="M12" s="268"/>
       <c r="N12" s="233">
         <v>69</v>
       </c>
-      <c r="O12" s="270"/>
+      <c r="O12" s="269"/>
     </row>
     <row r="13" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A13" s="239"/>
@@ -24437,17 +24428,17 @@
       <c r="H13" s="233">
         <v>3</v>
       </c>
-      <c r="I13" s="267"/>
-      <c r="J13" s="271"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="270"/>
       <c r="K13" s="233"/>
       <c r="L13" s="233">
         <v>23</v>
       </c>
-      <c r="M13" s="269"/>
+      <c r="M13" s="268"/>
       <c r="N13" s="233">
         <v>30</v>
       </c>
-      <c r="O13" s="270"/>
+      <c r="O13" s="269"/>
     </row>
     <row r="14" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A14" s="239"/>
@@ -24470,8 +24461,8 @@
       <c r="H14" s="233">
         <v>-26.3</v>
       </c>
-      <c r="I14" s="267"/>
-      <c r="J14" s="268"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="267"/>
       <c r="K14" s="233">
         <v>-382.13</v>
       </c>
@@ -24482,7 +24473,7 @@
       <c r="N14" s="233">
         <v>-6.42</v>
       </c>
-      <c r="O14" s="274"/>
+      <c r="O14" s="273"/>
     </row>
     <row r="15" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A15" s="239"/>
@@ -24499,8 +24490,8 @@
       <c r="H15" s="233">
         <v>-259.07</v>
       </c>
-      <c r="I15" s="267"/>
-      <c r="J15" s="271"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="270"/>
       <c r="K15" s="247"/>
       <c r="L15" s="233">
         <v>-218.45</v>
@@ -24509,7 +24500,7 @@
       <c r="N15" s="233">
         <v>-210.8</v>
       </c>
-      <c r="O15" s="270"/>
+      <c r="O15" s="269"/>
     </row>
     <row r="16" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A16" s="239"/>
@@ -24526,8 +24517,8 @@
       <c r="H16" s="233">
         <v>-1160.93</v>
       </c>
-      <c r="I16" s="267"/>
-      <c r="J16" s="271"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="270"/>
       <c r="K16" s="247"/>
       <c r="L16" s="233">
         <v>-1317.83</v>
@@ -24536,7 +24527,7 @@
       <c r="N16" s="233">
         <v>-1226.82</v>
       </c>
-      <c r="O16" s="270"/>
+      <c r="O16" s="269"/>
     </row>
     <row r="17" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A17" s="239"/>
@@ -24559,8 +24550,8 @@
       <c r="H17" s="233">
         <v>21</v>
       </c>
-      <c r="I17" s="267"/>
-      <c r="J17" s="268"/>
+      <c r="I17" s="266"/>
+      <c r="J17" s="267"/>
       <c r="K17" s="233">
         <v>31</v>
       </c>
@@ -24568,12 +24559,12 @@
         <f>SUM(F17:H17)</f>
         <v>89</v>
       </c>
-      <c r="M17" s="269"/>
+      <c r="M17" s="268"/>
       <c r="N17" s="233">
         <f>SUM(E17:G17)</f>
         <v>99</v>
       </c>
-      <c r="O17" s="270"/>
+      <c r="O17" s="269"/>
     </row>
     <row r="18" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A18" s="239"/>
@@ -24590,17 +24581,17 @@
       <c r="H18" s="233">
         <v>16</v>
       </c>
-      <c r="I18" s="267"/>
-      <c r="J18" s="268"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="267"/>
       <c r="K18" s="233"/>
       <c r="L18" s="233">
         <v>35</v>
       </c>
-      <c r="M18" s="269"/>
+      <c r="M18" s="268"/>
       <c r="N18" s="233">
         <v>50</v>
       </c>
-      <c r="O18" s="270"/>
+      <c r="O18" s="269"/>
     </row>
     <row r="19" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A19" s="239"/>
@@ -24617,17 +24608,17 @@
       <c r="H19" s="233">
         <v>5</v>
       </c>
-      <c r="I19" s="267"/>
-      <c r="J19" s="268"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="267"/>
       <c r="K19" s="233"/>
       <c r="L19" s="233">
         <v>31</v>
       </c>
-      <c r="M19" s="269"/>
+      <c r="M19" s="268"/>
       <c r="N19" s="233">
         <v>46</v>
       </c>
-      <c r="O19" s="270"/>
+      <c r="O19" s="269"/>
     </row>
     <row r="20" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A20" s="239"/>
@@ -24650,8 +24641,8 @@
       <c r="H20" s="238">
         <v>2.51</v>
       </c>
-      <c r="I20" s="275"/>
-      <c r="J20" s="268"/>
+      <c r="I20" s="274"/>
+      <c r="J20" s="267"/>
       <c r="K20" s="249">
         <v>3.31</v>
       </c>
@@ -24662,7 +24653,7 @@
       <c r="N20" s="233">
         <v>1.48</v>
       </c>
-      <c r="O20" s="270"/>
+      <c r="O20" s="269"/>
     </row>
     <row r="21" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A21" s="239"/>
@@ -24679,8 +24670,8 @@
       <c r="H21" s="233">
         <v>1.21</v>
       </c>
-      <c r="I21" s="267"/>
-      <c r="J21" s="268"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="267"/>
       <c r="K21" s="233"/>
       <c r="L21" s="233">
         <v>1.27</v>
@@ -24689,7 +24680,7 @@
       <c r="N21" s="233">
         <v>1.25</v>
       </c>
-      <c r="O21" s="270"/>
+      <c r="O21" s="269"/>
     </row>
     <row r="22" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A22" s="239"/>
@@ -24706,8 +24697,8 @@
       <c r="H22" s="238">
         <v>6.94</v>
       </c>
-      <c r="I22" s="275"/>
-      <c r="J22" s="268"/>
+      <c r="I22" s="274"/>
+      <c r="J22" s="267"/>
       <c r="K22" s="233"/>
       <c r="L22" s="233">
         <v>2.02</v>
@@ -24716,7 +24707,7 @@
       <c r="N22" s="233">
         <v>2.11</v>
       </c>
-      <c r="O22" s="270"/>
+      <c r="O22" s="269"/>
     </row>
     <row r="23" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A23" s="239"/>
@@ -24746,7 +24737,7 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="I23" s="253"/>
-      <c r="J23" s="276"/>
+      <c r="J23" s="275"/>
       <c r="K23" s="253">
         <f t="shared" ref="K23:L25" si="2">K5/IF((K5+K32)=0,1,(K5+K32))</f>
         <v>0.0240963855421687</v>
@@ -24755,12 +24746,12 @@
         <f>L5/IF((L5+L32)=0,1,(L5+L32))</f>
         <v>0.0489396411092985</v>
       </c>
-      <c r="M23" s="276"/>
+      <c r="M23" s="275"/>
       <c r="N23" s="253">
         <f>N5/IF((N5+N32)=0,1,(N5+N32))</f>
         <v>0.0436456996148909</v>
       </c>
-      <c r="O23" s="270"/>
+      <c r="O23" s="269"/>
     </row>
     <row r="24" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A24" s="239"/>
@@ -24786,7 +24777,7 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I24" s="253"/>
-      <c r="J24" s="271"/>
+      <c r="J24" s="270"/>
       <c r="K24" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24795,12 +24786,12 @@
         <f t="shared" si="2"/>
         <v>0.0886075949367089</v>
       </c>
-      <c r="M24" s="269"/>
+      <c r="M24" s="268"/>
       <c r="N24" s="254">
         <f>N6/IF((N6+N33)=0,1,(N6+N33))</f>
         <v>0.0712074303405573</v>
       </c>
-      <c r="O24" s="270"/>
+      <c r="O24" s="269"/>
     </row>
     <row r="25" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A25" s="239"/>
@@ -24826,7 +24817,7 @@
         <v>0.008</v>
       </c>
       <c r="I25" s="253"/>
-      <c r="J25" s="271"/>
+      <c r="J25" s="270"/>
       <c r="K25" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24835,12 +24826,12 @@
         <f t="shared" si="2"/>
         <v>0.0467836257309941</v>
       </c>
-      <c r="M25" s="269"/>
+      <c r="M25" s="268"/>
       <c r="N25" s="254">
         <f>N7/IF((N7+N34)=0,1,(N7+N34))</f>
         <v>0.047244094488189</v>
       </c>
-      <c r="O25" s="270"/>
+      <c r="O25" s="269"/>
     </row>
     <row r="26" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A26" s="239"/>
@@ -24863,8 +24854,8 @@
       <c r="H26" s="233">
         <v>2</v>
       </c>
-      <c r="I26" s="267"/>
-      <c r="J26" s="268"/>
+      <c r="I26" s="266"/>
+      <c r="J26" s="267"/>
       <c r="K26" s="233">
         <v>6</v>
       </c>
@@ -24872,12 +24863,12 @@
         <f>SUM(F26:H26)</f>
         <v>14</v>
       </c>
-      <c r="M26" s="269"/>
+      <c r="M26" s="268"/>
       <c r="N26" s="233">
         <f>SUM(J26:M26)</f>
         <v>20</v>
       </c>
-      <c r="O26" s="270"/>
+      <c r="O26" s="269"/>
     </row>
     <row r="27" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A27" s="239"/>
@@ -24894,17 +24885,17 @@
       <c r="H27" s="233">
         <v>1</v>
       </c>
-      <c r="I27" s="267"/>
-      <c r="J27" s="271"/>
+      <c r="I27" s="266"/>
+      <c r="J27" s="270"/>
       <c r="K27" s="233"/>
       <c r="L27" s="233">
         <v>11</v>
       </c>
-      <c r="M27" s="269"/>
+      <c r="M27" s="268"/>
       <c r="N27" s="233">
         <v>17</v>
       </c>
-      <c r="O27" s="270"/>
+      <c r="O27" s="269"/>
     </row>
     <row r="28" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A28" s="239"/>
@@ -24921,17 +24912,17 @@
       <c r="H28" s="233">
         <v>1</v>
       </c>
-      <c r="I28" s="267"/>
-      <c r="J28" s="271"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="270"/>
       <c r="K28" s="233"/>
       <c r="L28" s="233">
         <v>1</v>
       </c>
-      <c r="M28" s="269"/>
+      <c r="M28" s="268"/>
       <c r="N28" s="233">
         <v>1</v>
       </c>
-      <c r="O28" s="270"/>
+      <c r="O28" s="269"/>
     </row>
     <row r="29" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A29" s="239"/>
@@ -24954,8 +24945,8 @@
       <c r="H29" s="233">
         <v>8</v>
       </c>
-      <c r="I29" s="267"/>
-      <c r="J29" s="268"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="267"/>
       <c r="K29" s="233">
         <v>3</v>
       </c>
@@ -24963,12 +24954,12 @@
         <f>SUM(F29:H29)</f>
         <v>15</v>
       </c>
-      <c r="M29" s="269"/>
+      <c r="M29" s="268"/>
       <c r="N29" s="233">
         <f>SUM(J29:M29)</f>
         <v>18</v>
       </c>
-      <c r="O29" s="270"/>
+      <c r="O29" s="269"/>
     </row>
     <row r="30" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A30" s="239"/>
@@ -24985,17 +24976,17 @@
       <c r="H30" s="233">
         <v>0</v>
       </c>
-      <c r="I30" s="267"/>
-      <c r="J30" s="268"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="267"/>
       <c r="K30" s="233"/>
       <c r="L30" s="233">
         <v>8</v>
       </c>
-      <c r="M30" s="269"/>
+      <c r="M30" s="268"/>
       <c r="N30" s="233">
         <v>15</v>
       </c>
-      <c r="O30" s="270"/>
+      <c r="O30" s="269"/>
     </row>
     <row r="31" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A31" s="239"/>
@@ -25012,17 +25003,17 @@
       <c r="H31" s="233">
         <v>8</v>
       </c>
-      <c r="I31" s="267"/>
-      <c r="J31" s="268"/>
+      <c r="I31" s="266"/>
+      <c r="J31" s="267"/>
       <c r="K31" s="233"/>
       <c r="L31" s="233">
         <v>11</v>
       </c>
-      <c r="M31" s="269"/>
+      <c r="M31" s="268"/>
       <c r="N31" s="233">
         <v>13</v>
       </c>
-      <c r="O31" s="270"/>
+      <c r="O31" s="269"/>
     </row>
     <row r="32" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A32" s="239"/>
@@ -25045,8 +25036,8 @@
       <c r="H32" s="233">
         <v>204</v>
       </c>
-      <c r="I32" s="267"/>
-      <c r="J32" s="268"/>
+      <c r="I32" s="266"/>
+      <c r="J32" s="267"/>
       <c r="K32" s="233">
         <v>162</v>
       </c>
@@ -25054,12 +25045,12 @@
         <f>SUM(F32:H32)</f>
         <v>583</v>
       </c>
-      <c r="M32" s="269"/>
+      <c r="M32" s="268"/>
       <c r="N32" s="233">
         <f>SUM(J32:M32)</f>
         <v>745</v>
       </c>
-      <c r="O32" s="270"/>
+      <c r="O32" s="269"/>
     </row>
     <row r="33" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A33" s="239"/>
@@ -25076,17 +25067,17 @@
       <c r="H33" s="233">
         <v>80</v>
       </c>
-      <c r="I33" s="267"/>
-      <c r="J33" s="271"/>
+      <c r="I33" s="266"/>
+      <c r="J33" s="270"/>
       <c r="K33" s="233"/>
       <c r="L33" s="233">
         <v>216</v>
       </c>
-      <c r="M33" s="269"/>
+      <c r="M33" s="268"/>
       <c r="N33" s="233">
         <v>300</v>
       </c>
-      <c r="O33" s="270"/>
+      <c r="O33" s="269"/>
     </row>
     <row r="34" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A34" s="239"/>
@@ -25103,17 +25094,17 @@
       <c r="H34" s="233">
         <v>124</v>
       </c>
-      <c r="I34" s="267"/>
-      <c r="J34" s="271"/>
+      <c r="I34" s="266"/>
+      <c r="J34" s="270"/>
       <c r="K34" s="233"/>
       <c r="L34" s="233">
         <v>163</v>
       </c>
-      <c r="M34" s="269"/>
+      <c r="M34" s="268"/>
       <c r="N34" s="233">
         <v>242</v>
       </c>
-      <c r="O34" s="270"/>
+      <c r="O34" s="269"/>
     </row>
     <row r="35" s="182" customFormat="1" ht="21" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A35" s="239"/>
@@ -25136,19 +25127,19 @@
       <c r="H35" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="277"/>
-      <c r="J35" s="268"/>
+      <c r="I35" s="276"/>
+      <c r="J35" s="267"/>
       <c r="K35" s="233">
         <v>177</v>
       </c>
       <c r="L35" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="M35" s="269"/>
+      <c r="M35" s="268"/>
       <c r="N35" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="O35" s="274"/>
+      <c r="O35" s="273"/>
     </row>
     <row r="36" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A36" s="239"/>
@@ -25165,17 +25156,17 @@
       <c r="H36" s="233">
         <v>75</v>
       </c>
-      <c r="I36" s="267"/>
-      <c r="J36" s="271"/>
+      <c r="I36" s="266"/>
+      <c r="J36" s="270"/>
       <c r="K36" s="233"/>
       <c r="L36" s="233">
         <v>75</v>
       </c>
-      <c r="M36" s="269"/>
+      <c r="M36" s="268"/>
       <c r="N36" s="233">
         <v>75</v>
       </c>
-      <c r="O36" s="278"/>
+      <c r="O36" s="277"/>
     </row>
     <row r="37" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A37" s="239"/>
@@ -25192,17 +25183,17 @@
       <c r="H37" s="233">
         <v>158</v>
       </c>
-      <c r="I37" s="267"/>
-      <c r="J37" s="271"/>
+      <c r="I37" s="266"/>
+      <c r="J37" s="270"/>
       <c r="K37" s="233"/>
       <c r="L37" s="233">
         <v>158</v>
       </c>
-      <c r="M37" s="269"/>
+      <c r="M37" s="268"/>
       <c r="N37" s="233">
         <v>158</v>
       </c>
-      <c r="O37" s="278"/>
+      <c r="O37" s="277"/>
     </row>
     <row r="38" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A38" s="239"/>
@@ -25225,8 +25216,8 @@
       <c r="H38" s="233">
         <v>2</v>
       </c>
-      <c r="I38" s="267"/>
-      <c r="J38" s="268"/>
+      <c r="I38" s="266"/>
+      <c r="J38" s="267"/>
       <c r="K38" s="233">
         <v>2</v>
       </c>
@@ -25234,12 +25225,12 @@
         <f>SUM(F38:H38)</f>
         <v>19</v>
       </c>
-      <c r="M38" s="279"/>
+      <c r="M38" s="278"/>
       <c r="N38" s="233">
         <f>SUM(J38:M38)</f>
         <v>21</v>
       </c>
-      <c r="O38" s="270"/>
+      <c r="O38" s="269"/>
     </row>
     <row r="39" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A39" s="239"/>
@@ -25256,17 +25247,17 @@
       <c r="H39" s="233">
         <v>0</v>
       </c>
-      <c r="I39" s="267"/>
-      <c r="J39" s="271"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="270"/>
       <c r="K39" s="233"/>
       <c r="L39" s="233">
         <v>8</v>
       </c>
-      <c r="M39" s="269"/>
+      <c r="M39" s="268"/>
       <c r="N39" s="233">
         <v>10</v>
       </c>
-      <c r="O39" s="270"/>
+      <c r="O39" s="269"/>
     </row>
     <row r="40" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A40" s="239"/>
@@ -25283,17 +25274,17 @@
       <c r="H40" s="233">
         <v>2</v>
       </c>
-      <c r="I40" s="267"/>
-      <c r="J40" s="271"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="270"/>
       <c r="K40" s="233"/>
       <c r="L40" s="233">
         <v>10</v>
       </c>
-      <c r="M40" s="269"/>
+      <c r="M40" s="268"/>
       <c r="N40" s="233">
         <v>10</v>
       </c>
-      <c r="O40" s="270"/>
+      <c r="O40" s="269"/>
     </row>
     <row r="41" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A41" s="239"/>
@@ -25307,37 +25298,37 @@
         <v>78</v>
       </c>
       <c r="E41" s="254">
-        <f>E53/(IF(E50=0,1,E50))</f>
-        <v>0.170731707317073</v>
+        <f t="shared" ref="E41:E46" si="3">E50/(IF(E47=0,1,E47))</f>
+        <v>0.285714285714286</v>
       </c>
       <c r="F41" s="254">
-        <f t="shared" ref="E41:F43" si="3">F53/(IF(F50=0,1,F50))</f>
-        <v>0.7</v>
+        <f t="shared" ref="F41:F46" si="4">F50/(IF(F47=0,1,F47))</f>
+        <v>0.525641025641026</v>
       </c>
       <c r="G41" s="254">
-        <f t="shared" ref="G41:G44" si="4">G50/(IF(G47=0,1,G47))</f>
-        <v>0.861538461538462</v>
+        <f t="shared" ref="G41:G46" si="5">G50/(IF(G47=0,1,G47))</f>
+        <v>0.311475409836066</v>
       </c>
       <c r="H41" s="254">
-        <f t="shared" ref="H41:H46" si="5">H50/(IF(H47=0,1,H47))</f>
+        <f t="shared" ref="H41:H46" si="6">H50/(IF(H47=0,1,H47))</f>
         <v>0.80327868852459</v>
       </c>
       <c r="I41" s="254"/>
-      <c r="J41" s="276"/>
-      <c r="K41" s="254">
-        <f t="shared" ref="K41:L43" si="6">K53/(IF(K50=0,1,K50))</f>
-        <v>0.170731707317073</v>
+      <c r="J41" s="275"/>
+      <c r="K41" s="253">
+        <f t="shared" ref="K41:K46" si="7">K50/(IF(K47=0,1,K47))</f>
+        <v>0.285714285714286</v>
       </c>
       <c r="L41" s="253">
-        <f t="shared" ref="L41:L46" si="7">L50/(IF(L47=0,1,L47))</f>
-        <v>1.00490196078431</v>
+        <f t="shared" ref="L41:L46" si="8">L50/(IF(L47=0,1,L47))</f>
+        <v>0.545</v>
       </c>
       <c r="M41" s="253"/>
       <c r="N41" s="253">
-        <f t="shared" ref="N41:N46" si="8">N50/(IF(N47=0,1,N47))</f>
-        <v>1.02928870292887</v>
-      </c>
-      <c r="O41" s="274"/>
+        <f t="shared" ref="N41:N46" si="9">N50/(IF(N47=0,1,N47))</f>
+        <v>0.506382978723404</v>
+      </c>
+      <c r="O41" s="273"/>
     </row>
     <row r="42" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A42" s="239"/>
@@ -25348,36 +25339,36 @@
       <c r="D42" s="232"/>
       <c r="E42" s="254">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="F42" s="254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="253">
         <f t="shared" si="4"/>
-        <v>0.918367346938776</v>
+        <v>0.588235294117647</v>
+      </c>
+      <c r="G42" s="254">
+        <f t="shared" si="5"/>
+        <v>0.254901960784314</v>
       </c>
       <c r="H42" s="254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.808510638297872</v>
       </c>
       <c r="I42" s="254"/>
-      <c r="J42" s="271"/>
-      <c r="K42" s="254">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="J42" s="270"/>
+      <c r="K42" s="253">
+        <f t="shared" si="7"/>
+        <v>0.307692307692308</v>
       </c>
       <c r="L42" s="253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.930693069306931</v>
       </c>
-      <c r="M42" s="269"/>
+      <c r="M42" s="268"/>
       <c r="N42" s="253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.913385826771654</v>
       </c>
-      <c r="O42" s="270"/>
+      <c r="O42" s="269"/>
     </row>
     <row r="43" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A43" s="239"/>
@@ -25388,36 +25379,36 @@
       <c r="D43" s="232"/>
       <c r="E43" s="254">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="F43" s="254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="253">
         <f t="shared" si="4"/>
-        <v>0.6875</v>
+        <v>0.407407407407407</v>
+      </c>
+      <c r="G43" s="254">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
       </c>
       <c r="H43" s="254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.785714285714286</v>
       </c>
       <c r="I43" s="254"/>
-      <c r="J43" s="271"/>
-      <c r="K43" s="254">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="J43" s="270"/>
+      <c r="K43" s="253">
+        <f t="shared" si="7"/>
+        <v>0.222222222222222</v>
       </c>
       <c r="L43" s="253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.765957446808511</v>
       </c>
-      <c r="M43" s="269"/>
+      <c r="M43" s="268"/>
       <c r="N43" s="253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.789473684210526</v>
       </c>
-      <c r="O43" s="270"/>
+      <c r="O43" s="269"/>
     </row>
     <row r="44" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A44" s="239"/>
@@ -25428,38 +25419,38 @@
       <c r="D44" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="253">
-        <f t="shared" ref="E44:F46" si="9">E47/(IF(E50=0,1,E50))</f>
-        <v>0.853658536585366</v>
-      </c>
-      <c r="F44" s="253">
+      <c r="E44" s="254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="254">
+        <f t="shared" si="4"/>
+        <v>0.121951219512195</v>
+      </c>
+      <c r="G44" s="254">
+        <f t="shared" si="5"/>
+        <v>0.0526315789473684</v>
+      </c>
+      <c r="H44" s="254">
+        <f t="shared" si="6"/>
+        <v>0.448979591836735</v>
+      </c>
+      <c r="I44" s="254"/>
+      <c r="J44" s="267"/>
+      <c r="K44" s="253">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="253">
+        <f t="shared" si="8"/>
+        <v>0.256880733944954</v>
+      </c>
+      <c r="M44" s="279"/>
+      <c r="N44" s="253">
         <f t="shared" si="9"/>
-        <v>0.78</v>
-      </c>
-      <c r="G44" s="253">
-        <f t="shared" si="4"/>
-        <v>0.767857142857143</v>
-      </c>
-      <c r="H44" s="254">
-        <f t="shared" si="5"/>
-        <v>0.448979591836735</v>
-      </c>
-      <c r="I44" s="254"/>
-      <c r="J44" s="268"/>
-      <c r="K44" s="253">
-        <f t="shared" ref="K44:L46" si="10">K47/(IF(K50=0,1,K50))</f>
-        <v>0.853658536585366</v>
-      </c>
-      <c r="L44" s="253">
-        <f t="shared" si="7"/>
-        <v>0.658536585365854</v>
-      </c>
-      <c r="M44" s="280"/>
-      <c r="N44" s="253">
-        <f t="shared" si="8"/>
-        <v>0.577235772357724</v>
-      </c>
-      <c r="O44" s="281"/>
+        <v>0.235294117647059</v>
+      </c>
+      <c r="O44" s="280"/>
     </row>
     <row r="45" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A45" s="239"/>
@@ -25469,37 +25460,37 @@
       </c>
       <c r="D45" s="232"/>
       <c r="E45" s="254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="254">
+        <f t="shared" si="4"/>
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G45" s="254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="254">
+        <f t="shared" si="6"/>
+        <v>0.526315789473684</v>
+      </c>
+      <c r="I45" s="254"/>
+      <c r="J45" s="270"/>
+      <c r="K45" s="253">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="253">
+        <f t="shared" si="8"/>
+        <v>0.74468085106383</v>
+      </c>
+      <c r="M45" s="268"/>
+      <c r="N45" s="253">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="254">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="253">
-        <f t="shared" ref="G44:G46" si="11">G54/(IF(G51=0,1,G51))</f>
-        <v>0.777777777777778</v>
-      </c>
-      <c r="H45" s="254">
-        <f t="shared" si="5"/>
-        <v>0.526315789473684</v>
-      </c>
-      <c r="I45" s="254"/>
-      <c r="J45" s="271"/>
-      <c r="K45" s="254">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="253">
-        <f t="shared" si="7"/>
-        <v>0.74468085106383</v>
-      </c>
-      <c r="M45" s="269"/>
-      <c r="N45" s="253">
-        <f t="shared" si="8"/>
         <v>0.637931034482759</v>
       </c>
-      <c r="O45" s="281"/>
+      <c r="O45" s="280"/>
     </row>
     <row r="46" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A46" s="239"/>
@@ -25509,37 +25500,37 @@
       </c>
       <c r="D46" s="232"/>
       <c r="E46" s="254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="254">
+        <f t="shared" si="4"/>
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="G46" s="254">
+        <f t="shared" si="5"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H46" s="254">
+        <f t="shared" si="6"/>
+        <v>0.181818181818182</v>
+      </c>
+      <c r="I46" s="254"/>
+      <c r="J46" s="270"/>
+      <c r="K46" s="253">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="253">
+        <f t="shared" si="8"/>
+        <v>0.694444444444444</v>
+      </c>
+      <c r="M46" s="268"/>
+      <c r="N46" s="253">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="254">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="253">
-        <f t="shared" si="11"/>
-        <v>0.727272727272727</v>
-      </c>
-      <c r="H46" s="254">
-        <f t="shared" si="5"/>
-        <v>0.181818181818182</v>
-      </c>
-      <c r="I46" s="254"/>
-      <c r="J46" s="271"/>
-      <c r="K46" s="254">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="253">
-        <f t="shared" si="7"/>
-        <v>0.694444444444444</v>
-      </c>
-      <c r="M46" s="269"/>
-      <c r="N46" s="253">
-        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="O46" s="281"/>
+      <c r="O46" s="280"/>
     </row>
     <row r="47" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A47" s="239"/>
@@ -25550,33 +25541,33 @@
       <c r="D47" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="259">
+      <c r="E47" s="233">
         <v>35</v>
       </c>
-      <c r="F47" s="259">
+      <c r="F47" s="233">
         <v>78</v>
       </c>
       <c r="G47" s="233">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H47" s="233">
         <v>61</v>
       </c>
-      <c r="I47" s="267"/>
-      <c r="J47" s="268"/>
-      <c r="K47" s="259">
+      <c r="I47" s="266"/>
+      <c r="J47" s="267"/>
+      <c r="K47" s="233">
         <v>35</v>
       </c>
       <c r="L47" s="233">
         <f>SUM(F47:H47)</f>
-        <v>204</v>
-      </c>
-      <c r="M47" s="269"/>
+        <v>200</v>
+      </c>
+      <c r="M47" s="268"/>
       <c r="N47" s="233">
         <f>SUM(J47:M47)</f>
-        <v>239</v>
-      </c>
-      <c r="O47" s="281"/>
+        <v>235</v>
+      </c>
+      <c r="O47" s="280"/>
     </row>
     <row r="48" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A48" s="239"/>
@@ -25585,25 +25576,31 @@
         <v>58</v>
       </c>
       <c r="D48" s="232"/>
-      <c r="E48" s="259"/>
-      <c r="F48" s="259"/>
+      <c r="E48" s="233">
+        <v>26</v>
+      </c>
+      <c r="F48" s="233">
+        <v>51</v>
+      </c>
       <c r="G48" s="233">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H48" s="233">
         <v>47</v>
       </c>
-      <c r="I48" s="267"/>
-      <c r="J48" s="271"/>
-      <c r="K48" s="259"/>
+      <c r="I48" s="266"/>
+      <c r="J48" s="270"/>
+      <c r="K48" s="233">
+        <v>26</v>
+      </c>
       <c r="L48" s="233">
         <v>101</v>
       </c>
-      <c r="M48" s="269"/>
+      <c r="M48" s="268"/>
       <c r="N48" s="233">
         <v>127</v>
       </c>
-      <c r="O48" s="281"/>
+      <c r="O48" s="280"/>
     </row>
     <row r="49" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A49" s="239"/>
@@ -25612,25 +25609,31 @@
         <v>59</v>
       </c>
       <c r="D49" s="232"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="259"/>
+      <c r="E49" s="233">
+        <v>9</v>
+      </c>
+      <c r="F49" s="233">
+        <v>27</v>
+      </c>
       <c r="G49" s="233">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H49" s="233">
         <v>14</v>
       </c>
-      <c r="I49" s="267"/>
-      <c r="J49" s="271"/>
-      <c r="K49" s="259"/>
+      <c r="I49" s="266"/>
+      <c r="J49" s="270"/>
+      <c r="K49" s="233">
+        <v>9</v>
+      </c>
       <c r="L49" s="233">
         <v>47</v>
       </c>
-      <c r="M49" s="269"/>
+      <c r="M49" s="268"/>
       <c r="N49" s="233">
         <v>57</v>
       </c>
-      <c r="O49" s="281"/>
+      <c r="O49" s="280"/>
     </row>
     <row r="50" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A50" s="239"/>
@@ -25641,33 +25644,33 @@
       <c r="D50" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="259">
+      <c r="E50" s="233">
+        <v>10</v>
+      </c>
+      <c r="F50" s="233">
         <v>41</v>
       </c>
-      <c r="F50" s="259">
-        <v>100</v>
-      </c>
       <c r="G50" s="233">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H50" s="233">
         <v>49</v>
       </c>
-      <c r="I50" s="267"/>
-      <c r="J50" s="268"/>
-      <c r="K50" s="259">
-        <v>41</v>
+      <c r="I50" s="266"/>
+      <c r="J50" s="267"/>
+      <c r="K50" s="233">
+        <v>10</v>
       </c>
       <c r="L50" s="233">
         <f>SUM(F50:H50)</f>
-        <v>205</v>
-      </c>
-      <c r="M50" s="282"/>
+        <v>109</v>
+      </c>
+      <c r="M50" s="281"/>
       <c r="N50" s="233">
         <f>SUM(J50:M50)</f>
-        <v>246</v>
-      </c>
-      <c r="O50" s="281"/>
+        <v>119</v>
+      </c>
+      <c r="O50" s="280"/>
     </row>
     <row r="51" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A51" s="239"/>
@@ -25676,25 +25679,31 @@
         <v>58</v>
       </c>
       <c r="D51" s="232"/>
-      <c r="E51" s="259"/>
-      <c r="F51" s="259"/>
+      <c r="E51" s="233">
+        <v>8</v>
+      </c>
+      <c r="F51" s="233">
+        <v>30</v>
+      </c>
       <c r="G51" s="233">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H51" s="233">
         <v>38</v>
       </c>
-      <c r="I51" s="267"/>
-      <c r="J51" s="271"/>
-      <c r="K51" s="259"/>
+      <c r="I51" s="266"/>
+      <c r="J51" s="270"/>
+      <c r="K51" s="233">
+        <v>8</v>
+      </c>
       <c r="L51" s="233">
         <v>94</v>
       </c>
-      <c r="M51" s="269"/>
+      <c r="M51" s="268"/>
       <c r="N51" s="233">
         <v>116</v>
       </c>
-      <c r="O51" s="281"/>
+      <c r="O51" s="280"/>
     </row>
     <row r="52" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A52" s="239"/>
@@ -25703,25 +25712,31 @@
         <v>59</v>
       </c>
       <c r="D52" s="232"/>
-      <c r="E52" s="259"/>
-      <c r="F52" s="259"/>
+      <c r="E52" s="233">
+        <v>2</v>
+      </c>
+      <c r="F52" s="233">
+        <v>11</v>
+      </c>
       <c r="G52" s="233">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H52" s="233">
         <v>11</v>
       </c>
-      <c r="I52" s="267"/>
-      <c r="J52" s="271"/>
-      <c r="K52" s="259"/>
+      <c r="I52" s="266"/>
+      <c r="J52" s="270"/>
+      <c r="K52" s="233">
+        <v>2</v>
+      </c>
       <c r="L52" s="233">
         <v>36</v>
       </c>
-      <c r="M52" s="269"/>
+      <c r="M52" s="268"/>
       <c r="N52" s="233">
         <v>45</v>
       </c>
-      <c r="O52" s="281"/>
+      <c r="O52" s="280"/>
     </row>
     <row r="53" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A53" s="239"/>
@@ -25732,33 +25747,33 @@
       <c r="D53" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="259">
-        <v>7</v>
-      </c>
-      <c r="F53" s="259">
-        <v>70</v>
+      <c r="E53" s="233">
+        <v>0</v>
+      </c>
+      <c r="F53" s="233">
+        <v>5</v>
       </c>
       <c r="G53" s="233">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H53" s="233">
         <v>22</v>
       </c>
-      <c r="I53" s="267"/>
-      <c r="J53" s="268"/>
-      <c r="K53" s="259">
-        <v>7</v>
+      <c r="I53" s="266"/>
+      <c r="J53" s="267"/>
+      <c r="K53" s="233">
+        <v>0</v>
       </c>
       <c r="L53" s="233">
         <f>SUM(F53:H53)</f>
-        <v>135</v>
-      </c>
-      <c r="M53" s="269"/>
+        <v>28</v>
+      </c>
+      <c r="M53" s="268"/>
       <c r="N53" s="233">
         <f>SUM(J53:M53)</f>
-        <v>142</v>
-      </c>
-      <c r="O53" s="281"/>
+        <v>28</v>
+      </c>
+      <c r="O53" s="280"/>
     </row>
     <row r="54" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A54" s="239"/>
@@ -25767,25 +25782,31 @@
         <v>58</v>
       </c>
       <c r="D54" s="232"/>
-      <c r="E54" s="259"/>
-      <c r="F54" s="259"/>
+      <c r="E54" s="233">
+        <v>0</v>
+      </c>
+      <c r="F54" s="233">
+        <v>4</v>
+      </c>
       <c r="G54" s="233">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H54" s="233">
         <v>20</v>
       </c>
-      <c r="I54" s="267"/>
-      <c r="J54" s="271"/>
-      <c r="K54" s="259"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="270"/>
+      <c r="K54" s="233">
+        <v>0</v>
+      </c>
       <c r="L54" s="233">
         <v>70</v>
       </c>
-      <c r="M54" s="269"/>
+      <c r="M54" s="268"/>
       <c r="N54" s="233">
         <v>74</v>
       </c>
-      <c r="O54" s="281"/>
+      <c r="O54" s="280"/>
     </row>
     <row r="55" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A55" s="239"/>
@@ -25794,25 +25815,31 @@
         <v>59</v>
       </c>
       <c r="D55" s="232"/>
-      <c r="E55" s="259"/>
-      <c r="F55" s="259"/>
+      <c r="E55" s="233">
+        <v>0</v>
+      </c>
+      <c r="F55" s="233">
+        <v>1</v>
+      </c>
       <c r="G55" s="233">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H55" s="233">
         <v>2</v>
       </c>
-      <c r="I55" s="267"/>
-      <c r="J55" s="271"/>
-      <c r="K55" s="259"/>
+      <c r="I55" s="266"/>
+      <c r="J55" s="270"/>
+      <c r="K55" s="233">
+        <v>0</v>
+      </c>
       <c r="L55" s="233">
         <v>25</v>
       </c>
-      <c r="M55" s="269"/>
+      <c r="M55" s="268"/>
       <c r="N55" s="233">
         <v>27</v>
       </c>
-      <c r="O55" s="281"/>
+      <c r="O55" s="280"/>
     </row>
     <row r="56" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A56" s="239"/>
@@ -25824,32 +25851,37 @@
         <v>63</v>
       </c>
       <c r="E56" s="233">
-        <v>21</v>
+        <f t="shared" ref="E56:E58" si="10">E47-E50</f>
+        <v>25</v>
       </c>
       <c r="F56" s="233">
-        <v>31</v>
+        <f t="shared" ref="F56:F58" si="11">F47-F50</f>
+        <v>37</v>
       </c>
       <c r="G56" s="233">
-        <v>35</v>
+        <f t="shared" ref="G56:G58" si="12">G47-G50</f>
+        <v>42</v>
       </c>
       <c r="H56" s="233">
-        <v>11</v>
-      </c>
-      <c r="I56" s="267"/>
-      <c r="J56" s="268"/>
+        <f t="shared" ref="H56:H58" si="13">H47-H50</f>
+        <v>12</v>
+      </c>
+      <c r="I56" s="266"/>
+      <c r="J56" s="267"/>
       <c r="K56" s="233">
-        <v>21</v>
+        <f t="shared" ref="K56:K58" si="14">K47-K50</f>
+        <v>25</v>
       </c>
       <c r="L56" s="233">
         <f>SUM(F56:H56)</f>
-        <v>77</v>
-      </c>
-      <c r="M56" s="280"/>
+        <v>91</v>
+      </c>
+      <c r="M56" s="279"/>
       <c r="N56" s="233">
         <f>SUM(J56:M56)</f>
-        <v>98</v>
-      </c>
-      <c r="O56" s="281"/>
+        <v>116</v>
+      </c>
+      <c r="O56" s="280"/>
     </row>
     <row r="57" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A57" s="239"/>
@@ -25858,25 +25890,36 @@
         <v>58</v>
       </c>
       <c r="D57" s="232"/>
-      <c r="E57" s="233"/>
-      <c r="F57" s="233"/>
+      <c r="E57" s="233">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="F57" s="233">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
       <c r="G57" s="233">
-        <v>25</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="H57" s="233">
-        <v>10</v>
-      </c>
-      <c r="I57" s="267"/>
-      <c r="J57" s="271"/>
-      <c r="K57" s="233"/>
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="I57" s="266"/>
+      <c r="J57" s="270"/>
+      <c r="K57" s="233">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
       <c r="L57" s="233">
         <v>45</v>
       </c>
-      <c r="M57" s="269"/>
+      <c r="M57" s="268"/>
       <c r="N57" s="233">
         <v>52</v>
       </c>
-      <c r="O57" s="281"/>
+      <c r="O57" s="280"/>
     </row>
     <row r="58" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A58" s="239"/>
@@ -25885,25 +25928,36 @@
         <v>59</v>
       </c>
       <c r="D58" s="232"/>
-      <c r="E58" s="233"/>
-      <c r="F58" s="233"/>
+      <c r="E58" s="233">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="F58" s="233">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
       <c r="G58" s="233">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="H58" s="233">
-        <v>1</v>
-      </c>
-      <c r="I58" s="267"/>
-      <c r="J58" s="271"/>
-      <c r="K58" s="233"/>
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="I58" s="266"/>
+      <c r="J58" s="270"/>
+      <c r="K58" s="233">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
       <c r="L58" s="233">
         <v>25</v>
       </c>
-      <c r="M58" s="269"/>
+      <c r="M58" s="268"/>
       <c r="N58" s="233">
         <v>36</v>
       </c>
-      <c r="O58" s="281"/>
+      <c r="O58" s="280"/>
     </row>
     <row r="59" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A59" s="239"/>
@@ -25926,19 +25980,19 @@
       <c r="H59" s="233">
         <v>66</v>
       </c>
-      <c r="I59" s="267"/>
-      <c r="J59" s="268"/>
+      <c r="I59" s="266"/>
+      <c r="J59" s="267"/>
       <c r="K59" s="233">
         <v>32</v>
       </c>
       <c r="L59" s="233">
         <v>66</v>
       </c>
-      <c r="M59" s="280"/>
+      <c r="M59" s="279"/>
       <c r="N59" s="233">
         <v>66</v>
       </c>
-      <c r="O59" s="281"/>
+      <c r="O59" s="280"/>
     </row>
     <row r="60" s="182" customFormat="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A60" s="239"/>
@@ -25955,17 +26009,17 @@
       <c r="H60" s="233">
         <v>27</v>
       </c>
-      <c r="I60" s="267"/>
-      <c r="J60" s="271"/>
+      <c r="I60" s="266"/>
+      <c r="J60" s="270"/>
       <c r="K60" s="233"/>
       <c r="L60" s="233">
         <v>27</v>
       </c>
-      <c r="M60" s="269"/>
+      <c r="M60" s="268"/>
       <c r="N60" s="233">
         <v>27</v>
       </c>
-      <c r="O60" s="283"/>
+      <c r="O60" s="282"/>
     </row>
     <row r="61" s="182" customFormat="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A61" s="239"/>
@@ -25982,17 +26036,17 @@
       <c r="H61" s="233">
         <v>39</v>
       </c>
-      <c r="I61" s="267"/>
-      <c r="J61" s="271"/>
+      <c r="I61" s="266"/>
+      <c r="J61" s="270"/>
       <c r="K61" s="233"/>
       <c r="L61" s="233">
         <v>39</v>
       </c>
-      <c r="M61" s="269"/>
+      <c r="M61" s="268"/>
       <c r="N61" s="233">
         <v>39</v>
       </c>
-      <c r="O61" s="283"/>
+      <c r="O61" s="282"/>
     </row>
     <row r="62" s="218" customFormat="1" ht="27.95" customHeight="1" collapsed="1" spans="1:16">
       <c r="A62" s="227" t="s">
@@ -26010,266 +26064,266 @@
       <c r="K62" s="227"/>
       <c r="L62" s="227"/>
       <c r="M62" s="227"/>
-      <c r="N62" s="266"/>
-      <c r="O62" s="266"/>
-      <c r="P62" s="284"/>
+      <c r="N62" s="265"/>
+      <c r="O62" s="265"/>
+      <c r="P62" s="283"/>
     </row>
     <row r="63" s="219" customFormat="1" ht="18" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A63" s="260" t="s">
+      <c r="A63" s="259" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="261"/>
-      <c r="C63" s="262" t="s">
+      <c r="B63" s="260"/>
+      <c r="C63" s="261" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="262"/>
-      <c r="E63" s="263"/>
-      <c r="F63" s="262"/>
-      <c r="G63" s="262"/>
-      <c r="H63" s="262"/>
-      <c r="I63" s="262"/>
-      <c r="J63" s="262"/>
-      <c r="K63" s="262"/>
-      <c r="L63" s="262"/>
-      <c r="M63" s="262"/>
-      <c r="N63" s="262"/>
-      <c r="O63" s="285"/>
-      <c r="P63" s="286"/>
+      <c r="D63" s="261"/>
+      <c r="E63" s="262"/>
+      <c r="F63" s="261"/>
+      <c r="G63" s="261"/>
+      <c r="H63" s="261"/>
+      <c r="I63" s="261"/>
+      <c r="J63" s="261"/>
+      <c r="K63" s="261"/>
+      <c r="L63" s="261"/>
+      <c r="M63" s="261"/>
+      <c r="N63" s="261"/>
+      <c r="O63" s="284"/>
+      <c r="P63" s="285"/>
     </row>
     <row r="64" s="219" customFormat="1" ht="22.5" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A64" s="260" t="s">
+      <c r="A64" s="259" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="261"/>
-      <c r="C64" s="264" t="s">
+      <c r="B64" s="260"/>
+      <c r="C64" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="264"/>
-      <c r="E64" s="265"/>
-      <c r="F64" s="264"/>
-      <c r="G64" s="264"/>
-      <c r="H64" s="264"/>
-      <c r="I64" s="264"/>
-      <c r="J64" s="264"/>
-      <c r="K64" s="264"/>
-      <c r="L64" s="264"/>
-      <c r="M64" s="264"/>
-      <c r="N64" s="264"/>
-      <c r="O64" s="287"/>
-      <c r="P64" s="286"/>
+      <c r="D64" s="263"/>
+      <c r="E64" s="264"/>
+      <c r="F64" s="263"/>
+      <c r="G64" s="263"/>
+      <c r="H64" s="263"/>
+      <c r="I64" s="263"/>
+      <c r="J64" s="263"/>
+      <c r="K64" s="263"/>
+      <c r="L64" s="263"/>
+      <c r="M64" s="263"/>
+      <c r="N64" s="263"/>
+      <c r="O64" s="286"/>
+      <c r="P64" s="285"/>
     </row>
     <row r="65" s="219" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A65" s="288" t="s">
+      <c r="A65" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="289"/>
-      <c r="C65" s="290" t="s">
+      <c r="B65" s="288"/>
+      <c r="C65" s="289" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="290"/>
-      <c r="E65" s="290"/>
-      <c r="F65" s="290"/>
-      <c r="G65" s="290"/>
-      <c r="H65" s="290"/>
-      <c r="I65" s="290"/>
-      <c r="J65" s="290"/>
-      <c r="K65" s="290"/>
-      <c r="L65" s="290"/>
-      <c r="M65" s="290"/>
-      <c r="N65" s="290"/>
-      <c r="O65" s="303"/>
-      <c r="P65" s="286"/>
+      <c r="D65" s="289"/>
+      <c r="E65" s="289"/>
+      <c r="F65" s="289"/>
+      <c r="G65" s="289"/>
+      <c r="H65" s="289"/>
+      <c r="I65" s="289"/>
+      <c r="J65" s="289"/>
+      <c r="K65" s="289"/>
+      <c r="L65" s="289"/>
+      <c r="M65" s="289"/>
+      <c r="N65" s="289"/>
+      <c r="O65" s="302"/>
+      <c r="P65" s="285"/>
     </row>
     <row r="66" s="219" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A66" s="288" t="s">
+      <c r="A66" s="287" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="289"/>
-      <c r="C66" s="290" t="s">
+      <c r="B66" s="288"/>
+      <c r="C66" s="289" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="290"/>
-      <c r="E66" s="290"/>
-      <c r="F66" s="290"/>
-      <c r="G66" s="290"/>
-      <c r="H66" s="290"/>
-      <c r="I66" s="290"/>
-      <c r="J66" s="290"/>
-      <c r="K66" s="290"/>
-      <c r="L66" s="290"/>
-      <c r="M66" s="290"/>
-      <c r="N66" s="290"/>
-      <c r="O66" s="303"/>
-      <c r="P66" s="286"/>
+      <c r="D66" s="289"/>
+      <c r="E66" s="289"/>
+      <c r="F66" s="289"/>
+      <c r="G66" s="289"/>
+      <c r="H66" s="289"/>
+      <c r="I66" s="289"/>
+      <c r="J66" s="289"/>
+      <c r="K66" s="289"/>
+      <c r="L66" s="289"/>
+      <c r="M66" s="289"/>
+      <c r="N66" s="289"/>
+      <c r="O66" s="302"/>
+      <c r="P66" s="285"/>
     </row>
     <row r="67" s="219" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A67" s="288" t="s">
+      <c r="A67" s="287" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="289"/>
-      <c r="C67" s="291" t="s">
+      <c r="B67" s="288"/>
+      <c r="C67" s="290" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="291"/>
-      <c r="E67" s="291"/>
-      <c r="F67" s="291"/>
-      <c r="G67" s="291"/>
-      <c r="H67" s="291"/>
-      <c r="I67" s="291"/>
-      <c r="J67" s="291"/>
-      <c r="K67" s="291"/>
-      <c r="L67" s="291"/>
-      <c r="M67" s="291"/>
-      <c r="N67" s="291"/>
-      <c r="O67" s="304"/>
-      <c r="P67" s="286"/>
+      <c r="D67" s="290"/>
+      <c r="E67" s="290"/>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="290"/>
+      <c r="J67" s="290"/>
+      <c r="K67" s="290"/>
+      <c r="L67" s="290"/>
+      <c r="M67" s="290"/>
+      <c r="N67" s="290"/>
+      <c r="O67" s="303"/>
+      <c r="P67" s="285"/>
     </row>
     <row r="68" s="219" customFormat="1" ht="45.6" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A68" s="288" t="s">
+      <c r="A68" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="289"/>
-      <c r="C68" s="292" t="s">
+      <c r="B68" s="288"/>
+      <c r="C68" s="291" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="292"/>
-      <c r="E68" s="292"/>
-      <c r="F68" s="292"/>
-      <c r="G68" s="292"/>
-      <c r="H68" s="292"/>
-      <c r="I68" s="292"/>
-      <c r="J68" s="292"/>
-      <c r="K68" s="292"/>
-      <c r="L68" s="292"/>
-      <c r="M68" s="292"/>
-      <c r="N68" s="292"/>
-      <c r="O68" s="305"/>
-      <c r="P68" s="286"/>
+      <c r="D68" s="291"/>
+      <c r="E68" s="291"/>
+      <c r="F68" s="291"/>
+      <c r="G68" s="291"/>
+      <c r="H68" s="291"/>
+      <c r="I68" s="291"/>
+      <c r="J68" s="291"/>
+      <c r="K68" s="291"/>
+      <c r="L68" s="291"/>
+      <c r="M68" s="291"/>
+      <c r="N68" s="291"/>
+      <c r="O68" s="304"/>
+      <c r="P68" s="285"/>
     </row>
     <row r="69" s="218" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A69" s="293" t="s">
+      <c r="A69" s="292" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="293"/>
-      <c r="C69" s="294" t="str">
+      <c r="B69" s="292"/>
+      <c r="C69" s="293" t="str">
         <f>"本月故障 "&amp;H4&amp;" 起"</f>
         <v>本月故障 0 起</v>
       </c>
-      <c r="D69" s="295"/>
-      <c r="E69" s="295"/>
-      <c r="F69" s="295"/>
-      <c r="G69" s="295"/>
-      <c r="H69" s="295"/>
-      <c r="I69" s="295"/>
-      <c r="J69" s="295"/>
-      <c r="K69" s="295"/>
-      <c r="L69" s="295"/>
-      <c r="M69" s="295"/>
-      <c r="N69" s="295"/>
-      <c r="O69" s="295"/>
+      <c r="D69" s="294"/>
+      <c r="E69" s="294"/>
+      <c r="F69" s="294"/>
+      <c r="G69" s="294"/>
+      <c r="H69" s="294"/>
+      <c r="I69" s="294"/>
+      <c r="J69" s="294"/>
+      <c r="K69" s="294"/>
+      <c r="L69" s="294"/>
+      <c r="M69" s="294"/>
+      <c r="N69" s="294"/>
+      <c r="O69" s="294"/>
     </row>
     <row r="70" s="218" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A70" s="296" t="s">
+      <c r="A70" s="295" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="297"/>
-      <c r="C70" s="297"/>
-      <c r="D70" s="297"/>
-      <c r="E70" s="297"/>
-      <c r="F70" s="297"/>
-      <c r="G70" s="297"/>
-      <c r="H70" s="297"/>
-      <c r="I70" s="297"/>
-      <c r="J70" s="297"/>
-      <c r="K70" s="297"/>
-      <c r="L70" s="297"/>
-      <c r="M70" s="297"/>
-      <c r="N70" s="297"/>
-      <c r="O70" s="306"/>
+      <c r="B70" s="296"/>
+      <c r="C70" s="296"/>
+      <c r="D70" s="296"/>
+      <c r="E70" s="296"/>
+      <c r="F70" s="296"/>
+      <c r="G70" s="296"/>
+      <c r="H70" s="296"/>
+      <c r="I70" s="296"/>
+      <c r="J70" s="296"/>
+      <c r="K70" s="296"/>
+      <c r="L70" s="296"/>
+      <c r="M70" s="296"/>
+      <c r="N70" s="296"/>
+      <c r="O70" s="305"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="298" t="s">
+      <c r="A71" s="297" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="299"/>
-      <c r="C71" s="300" t="s">
+      <c r="B71" s="298"/>
+      <c r="C71" s="299" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="300"/>
-      <c r="E71" s="301"/>
-      <c r="F71" s="301"/>
-      <c r="G71" s="301"/>
-      <c r="H71" s="301"/>
-      <c r="I71" s="301"/>
-      <c r="J71" s="301"/>
-      <c r="K71" s="301"/>
-      <c r="L71" s="301"/>
-      <c r="M71" s="301"/>
-      <c r="N71" s="301"/>
-      <c r="O71" s="301"/>
+      <c r="D71" s="299"/>
+      <c r="E71" s="300"/>
+      <c r="F71" s="300"/>
+      <c r="G71" s="300"/>
+      <c r="H71" s="300"/>
+      <c r="I71" s="300"/>
+      <c r="J71" s="300"/>
+      <c r="K71" s="300"/>
+      <c r="L71" s="300"/>
+      <c r="M71" s="300"/>
+      <c r="N71" s="300"/>
+      <c r="O71" s="300"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="298" t="s">
+      <c r="A72" s="297" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="299"/>
-      <c r="C72" s="300" t="s">
+      <c r="B72" s="298"/>
+      <c r="C72" s="299" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="300"/>
-      <c r="E72" s="301"/>
-      <c r="F72" s="301"/>
-      <c r="G72" s="301"/>
-      <c r="H72" s="301"/>
-      <c r="I72" s="301"/>
-      <c r="J72" s="301"/>
-      <c r="K72" s="301"/>
-      <c r="L72" s="301"/>
-      <c r="M72" s="301"/>
-      <c r="N72" s="301"/>
-      <c r="O72" s="301"/>
+      <c r="D72" s="299"/>
+      <c r="E72" s="300"/>
+      <c r="F72" s="300"/>
+      <c r="G72" s="300"/>
+      <c r="H72" s="300"/>
+      <c r="I72" s="300"/>
+      <c r="J72" s="300"/>
+      <c r="K72" s="300"/>
+      <c r="L72" s="300"/>
+      <c r="M72" s="300"/>
+      <c r="N72" s="300"/>
+      <c r="O72" s="300"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="298" t="s">
+      <c r="A73" s="297" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="299"/>
-      <c r="C73" s="300" t="s">
+      <c r="B73" s="298"/>
+      <c r="C73" s="299" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="300"/>
-      <c r="E73" s="301"/>
-      <c r="F73" s="301"/>
-      <c r="G73" s="301"/>
-      <c r="H73" s="301"/>
-      <c r="I73" s="301"/>
-      <c r="J73" s="301"/>
-      <c r="K73" s="301"/>
-      <c r="L73" s="301"/>
-      <c r="M73" s="301"/>
-      <c r="N73" s="301"/>
-      <c r="O73" s="301"/>
+      <c r="D73" s="299"/>
+      <c r="E73" s="300"/>
+      <c r="F73" s="300"/>
+      <c r="G73" s="300"/>
+      <c r="H73" s="300"/>
+      <c r="I73" s="300"/>
+      <c r="J73" s="300"/>
+      <c r="K73" s="300"/>
+      <c r="L73" s="300"/>
+      <c r="M73" s="300"/>
+      <c r="N73" s="300"/>
+      <c r="O73" s="300"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:15">
-      <c r="A74" s="298" t="s">
+      <c r="A74" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="299"/>
-      <c r="C74" s="294" t="s">
+      <c r="B74" s="298"/>
+      <c r="C74" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="302"/>
-      <c r="E74" s="295"/>
-      <c r="F74" s="295"/>
-      <c r="G74" s="295"/>
-      <c r="H74" s="295"/>
-      <c r="I74" s="295"/>
-      <c r="J74" s="295"/>
-      <c r="K74" s="295"/>
-      <c r="L74" s="295"/>
-      <c r="M74" s="295"/>
-      <c r="N74" s="295"/>
-      <c r="O74" s="295"/>
+      <c r="D74" s="301"/>
+      <c r="E74" s="294"/>
+      <c r="F74" s="294"/>
+      <c r="G74" s="294"/>
+      <c r="H74" s="294"/>
+      <c r="I74" s="294"/>
+      <c r="J74" s="294"/>
+      <c r="K74" s="294"/>
+      <c r="L74" s="294"/>
+      <c r="M74" s="294"/>
+      <c r="N74" s="294"/>
+      <c r="O74" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="33">
